--- a/Shift Code Templates/SWV_template.xlsx
+++ b/Shift Code Templates/SWV_template.xlsx
@@ -80,7 +80,7 @@
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
     <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -151,30 +151,25 @@
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -190,7 +185,7 @@
         <table:table-column table:style-name="co3" table:default-cell-style-name="ce5"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="ce5"/>
         <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce5"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce21"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce20"/>
         <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce5"/>
         <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce5"/>
         <table:table-row table:style-name="ro2">
@@ -237,7 +232,7 @@
           <table:table-cell table:style-name="ce17"/>
           <table:table-cell table:style-name="ce13"/>
           <table:table-cell table:style-name="ce17" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:style-name="ce17" table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce13"/>
           <table:table-cell table:style-name="ce11"/>
@@ -264,7 +259,7 @@
           <table:table-cell table:style-name="ce7"/>
           <table:table-cell table:style-name="ce12"/>
           <table:table-cell table:style-name="ce15" table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="1004"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce3" office:value-type="string">
@@ -276,11 +271,11 @@
           <table:covered-table-cell table:style-name="ce3"/>
           <table:table-cell table:style-name="ce16"/>
           <table:table-cell table:style-name="ce18" table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15343">
-            <text:p>15343</text:p>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="72774">
+            <text:p>72774</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Hodges</text:p>
@@ -289,12 +284,12 @@
             <text:p>Ivy</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15063">
-            <text:p>15063</text:p>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="23656">
+            <text:p>23656</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Hodge</text:p>
@@ -303,12 +298,12 @@
             <text:p>Reece</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13286">
-            <text:p>13286</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="97606">
+            <text:p>97606</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Johns</text:p>
@@ -317,12 +312,12 @@
             <text:p>Cristopher</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13047">
-            <text:p>13047</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="29282">
+            <text:p>29282</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Massey</text:p>
@@ -331,12 +326,12 @@
             <text:p>Van</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13900">
-            <text:p>13900</text:p>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="99841">
+            <text:p>99841</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Hanson</text:p>
@@ -345,12 +340,12 @@
             <text:p>Nikolas</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13838">
-            <text:p>13838</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="58743">
+            <text:p>58743</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Dean</text:p>
@@ -359,12 +354,12 @@
             <text:p>Julianna</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15175">
-            <text:p>15175</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="20884">
+            <text:p>20884</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Rojas</text:p>
@@ -373,12 +368,12 @@
             <text:p>Cooper</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15396">
-            <text:p>15396</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="48016">
+            <text:p>48016</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Byrd</text:p>
@@ -387,12 +382,12 @@
             <text:p>Trent</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15047">
-            <text:p>15047</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="66556">
+            <text:p>66556</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Andrade</text:p>
@@ -401,12 +396,12 @@
             <text:p>Tobias</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11596">
-            <text:p>11596</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15754">
+            <text:p>15754</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Colon</text:p>
@@ -415,12 +410,12 @@
             <text:p>Ingrid</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15022">
-            <text:p>15022</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="78897">
+            <text:p>78897</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Randolph</text:p>
@@ -429,12 +424,12 @@
             <text:p>Nick</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15210">
-            <text:p>15210</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="80783">
+            <text:p>80783</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Weeks</text:p>
@@ -443,12 +438,12 @@
             <text:p>Dakota</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13942">
-            <text:p>13942</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="29929">
+            <text:p>29929</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Valencia</text:p>
@@ -457,12 +452,12 @@
             <text:p>Lina</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13945">
-            <text:p>13945</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="45981">
+            <text:p>45981</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Figueroa</text:p>
@@ -471,12 +466,12 @@
             <text:p>Gwendolyn</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15280">
-            <text:p>15280</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="20246">
+            <text:p>20246</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Quinn</text:p>
@@ -485,12 +480,12 @@
             <text:p>Colin</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="14957">
-            <text:p>14957</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="31544">
+            <text:p>31544</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Bush</text:p>
@@ -499,12 +494,12 @@
             <text:p>Bruno</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15167">
-            <text:p>15167</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="3416">
+            <text:p>3416</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Liu</text:p>
@@ -513,12 +508,12 @@
             <text:p>Amy</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11483">
-            <text:p>11483</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="31302">
+            <text:p>31302</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Suarez</text:p>
@@ -527,12 +522,12 @@
             <text:p>Jadyn</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15207">
-            <text:p>15207</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="14673">
+            <text:p>14673</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Carney</text:p>
@@ -541,12 +536,12 @@
             <text:p>Veronica</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15395">
-            <text:p>15395</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="5462">
+            <text:p>5462</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Berg</text:p>
@@ -555,12 +550,12 @@
             <text:p>Tristen</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13913">
-            <text:p>13913</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="50948">
+            <text:p>50948</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Roberson</text:p>
@@ -569,12 +564,12 @@
             <text:p>Natalie</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13886">
-            <text:p>13886</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="14830">
+            <text:p>14830</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Mosley</text:p>
@@ -583,12 +578,12 @@
             <text:p>Rosa</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13259">
-            <text:p>13259</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="17116">
+            <text:p>17116</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Humphrey</text:p>
@@ -597,12 +592,12 @@
             <text:p>Adrianna</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13073">
-            <text:p>13073</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="30744">
+            <text:p>30744</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Glass</text:p>
@@ -611,12 +606,12 @@
             <text:p>Celia</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11659">
-            <text:p>11659</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="60668">
+            <text:p>60668</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Zuniga</text:p>
@@ -625,12 +620,12 @@
             <text:p>Selina</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13148">
-            <text:p>13148</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="27175">
+            <text:p>27175</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Mcintyre</text:p>
@@ -639,12 +634,12 @@
             <text:p>Mallory</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15211">
-            <text:p>15211</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13658">
+            <text:p>13658</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Snyder</text:p>
@@ -653,12 +648,12 @@
             <text:p>Elizabeth</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15208">
-            <text:p>15208</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="27065">
+            <text:p>27065</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Patel</text:p>
@@ -667,12 +662,12 @@
             <text:p>Octavio</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15279">
-            <text:p>15279</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="526">
+            <text:p>526</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Mayer</text:p>
@@ -681,12 +676,12 @@
             <text:p>Diya</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13346">
-            <text:p>13346</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="42182">
+            <text:p>42182</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Pugh</text:p>
@@ -695,12 +690,12 @@
             <text:p>Alonzo</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13147">
-            <text:p>13147</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="92514">
+            <text:p>92514</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Hickman</text:p>
@@ -709,12 +704,12 @@
             <text:p>Alissa</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15156">
-            <text:p>15156</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="53077">
+            <text:p>53077</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Delacruz</text:p>
@@ -723,12 +718,12 @@
             <text:p>Hayley</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15331">
-            <text:p>15331</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="94626">
+            <text:p>94626</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Kirby</text:p>
@@ -737,12 +732,12 @@
             <text:p>Curtis</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15419">
-            <text:p>15419</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="30684">
+            <text:p>30684</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Haynes</text:p>
@@ -751,12 +746,12 @@
             <text:p>Abdiel</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15339">
-            <text:p>15339</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="94978">
+            <text:p>94978</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Rhodes</text:p>
@@ -765,12 +760,12 @@
             <text:p>Jaylah</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="9541">
-            <text:p>9541</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="44131">
+            <text:p>44131</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Fletcher</text:p>
@@ -779,12 +774,12 @@
             <text:p>Jordan</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13252">
-            <text:p>13252</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="46505">
+            <text:p>46505</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Solis</text:p>
@@ -793,12 +788,12 @@
             <text:p>Melina</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="12552">
-            <text:p>12552</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="80613">
+            <text:p>80613</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Neal</text:p>
@@ -807,12 +802,12 @@
             <text:p>Claudia</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11492">
-            <text:p>11492</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="36292">
+            <text:p>36292</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Moreno</text:p>
@@ -821,12 +816,12 @@
             <text:p>Leonard</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13412">
-            <text:p>13412</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15258">
+            <text:p>15258</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Irwin</text:p>
@@ -835,12 +830,12 @@
             <text:p>Dawson</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15155">
-            <text:p>15155</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="30089">
+            <text:p>30089</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Odonnell</text:p>
@@ -849,12 +844,12 @@
             <text:p>Kadin</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13544">
-            <text:p>13544</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="48328">
+            <text:p>48328</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Jensen</text:p>
@@ -863,12 +858,12 @@
             <text:p>Janessa</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15064">
-            <text:p>15064</text:p>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="22005">
+            <text:p>22005</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>Werner</text:p>
@@ -877,11 +872,13 @@
             <text:p>Kael</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="Default"/>
@@ -920,11 +917,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2018-11-05T20:05:52.54</dc:date>
+    <dc:date>2018-11-25T10:26:19.56</dc:date>
     <dc:creator>Jason Marc Alegado</dc:creator>
     <meta:generator>OpenOffice/4.0.1$Win32 OpenOffice.org_project/401m5$Build-9714</meta:generator>
-    <meta:editing-duration>PT18S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:editing-duration>PT1M11S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="134" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
@@ -943,8 +940,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">48</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">50</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -953,9 +950,9 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">29</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">25</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet2">
@@ -971,7 +968,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet3">
@@ -987,14 +984,14 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">793</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -1272,9 +1269,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-11-05">11/05/2018</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-11-25">11/25/2018</text:date>
             , 
-            <text:time>20:05:52</text:time>
+            <text:time>10:26:19</text:time>
           </text:p>
         </style:region-right>
       </style:header>
